--- a/Code/Results/Cases/Case_4_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_224/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016659470729337</v>
+        <v>1.041965429811312</v>
       </c>
       <c r="D2">
-        <v>1.034079739652293</v>
+        <v>1.048149074808328</v>
       </c>
       <c r="E2">
-        <v>1.024726820639209</v>
+        <v>1.045624627833948</v>
       </c>
       <c r="F2">
-        <v>1.035058571948922</v>
+        <v>1.055760267162323</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053625904677046</v>
+        <v>1.043773080900968</v>
       </c>
       <c r="J2">
-        <v>1.038353066500926</v>
+        <v>1.047043796655332</v>
       </c>
       <c r="K2">
-        <v>1.045083860595622</v>
+        <v>1.050909726480913</v>
       </c>
       <c r="L2">
-        <v>1.035852093241033</v>
+        <v>1.048392344486278</v>
       </c>
       <c r="M2">
-        <v>1.046050171895904</v>
+        <v>1.058499839548612</v>
       </c>
       <c r="N2">
-        <v>1.039827646956119</v>
+        <v>1.048530718944185</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02121002187226</v>
+        <v>1.042919548124774</v>
       </c>
       <c r="D3">
-        <v>1.037591450505774</v>
+        <v>1.048905561855759</v>
       </c>
       <c r="E3">
-        <v>1.028790477068299</v>
+        <v>1.046527558483697</v>
       </c>
       <c r="F3">
-        <v>1.039282675745401</v>
+        <v>1.05670147367993</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055267402796162</v>
+        <v>1.044052140462197</v>
       </c>
       <c r="J3">
-        <v>1.041138718340617</v>
+        <v>1.047644136667051</v>
       </c>
       <c r="K3">
-        <v>1.047764915458416</v>
+        <v>1.051478344511386</v>
       </c>
       <c r="L3">
-        <v>1.039067768489046</v>
+        <v>1.049106515277512</v>
       </c>
       <c r="M3">
-        <v>1.04943643810506</v>
+        <v>1.059254225558452</v>
       </c>
       <c r="N3">
-        <v>1.042617254740941</v>
+        <v>1.049131911507581</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024094466433087</v>
+        <v>1.043537300010837</v>
       </c>
       <c r="D4">
-        <v>1.039820042583922</v>
+        <v>1.049395354752548</v>
       </c>
       <c r="E4">
-        <v>1.03137139784066</v>
+        <v>1.047112520958926</v>
       </c>
       <c r="F4">
-        <v>1.041965704562133</v>
+        <v>1.057311250256753</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056297690471939</v>
+        <v>1.044231557395825</v>
       </c>
       <c r="J4">
-        <v>1.04290128876225</v>
+        <v>1.048032345497218</v>
       </c>
       <c r="K4">
-        <v>1.049460502968757</v>
+        <v>1.051845909373342</v>
       </c>
       <c r="L4">
-        <v>1.041105385775388</v>
+        <v>1.049568704285608</v>
       </c>
       <c r="M4">
-        <v>1.05158270869177</v>
+        <v>1.059742489326609</v>
       </c>
       <c r="N4">
-        <v>1.044382328214742</v>
+        <v>1.049520671638814</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.025293215399677</v>
+        <v>1.043797091490957</v>
       </c>
       <c r="D5">
-        <v>1.040746810539486</v>
+        <v>1.049601333134822</v>
       </c>
       <c r="E5">
-        <v>1.032445195624632</v>
+        <v>1.047358607010823</v>
       </c>
       <c r="F5">
-        <v>1.043082032177373</v>
+        <v>1.057567779372024</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056723382910444</v>
+        <v>1.04430670764455</v>
       </c>
       <c r="J5">
-        <v>1.043633006139586</v>
+        <v>1.048195487482189</v>
       </c>
       <c r="K5">
-        <v>1.050164213172869</v>
+        <v>1.052000344408354</v>
       </c>
       <c r="L5">
-        <v>1.041952001031113</v>
+        <v>1.049763024983213</v>
       </c>
       <c r="M5">
-        <v>1.052474599925034</v>
+        <v>1.059947784420908</v>
       </c>
       <c r="N5">
-        <v>1.045115084714683</v>
+        <v>1.049684045304117</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.025493691506873</v>
+        <v>1.043840716794135</v>
       </c>
       <c r="D6">
-        <v>1.040901834228784</v>
+        <v>1.049635921848548</v>
       </c>
       <c r="E6">
-        <v>1.032624844204673</v>
+        <v>1.047399935748896</v>
       </c>
       <c r="F6">
-        <v>1.043268798840743</v>
+        <v>1.057610862202591</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056794427564618</v>
+        <v>1.0443193094647</v>
       </c>
       <c r="J6">
-        <v>1.043755329515563</v>
+        <v>1.048222876137294</v>
       </c>
       <c r="K6">
-        <v>1.050281842546397</v>
+        <v>1.052026269471847</v>
       </c>
       <c r="L6">
-        <v>1.042093574367079</v>
+        <v>1.049795653218961</v>
       </c>
       <c r="M6">
-        <v>1.052623752082498</v>
+        <v>1.05998225604083</v>
       </c>
       <c r="N6">
-        <v>1.045237581803885</v>
+        <v>1.049711472854254</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024110538025876</v>
+        <v>1.04354077101026</v>
       </c>
       <c r="D7">
-        <v>1.03983246548336</v>
+        <v>1.049398106774419</v>
       </c>
       <c r="E7">
-        <v>1.031385789557064</v>
+        <v>1.047115808514828</v>
       </c>
       <c r="F7">
-        <v>1.041980666104273</v>
+        <v>1.057314677309374</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056303407586572</v>
+        <v>1.044232562644761</v>
       </c>
       <c r="J7">
-        <v>1.042911102041908</v>
+        <v>1.048034525649179</v>
       </c>
       <c r="K7">
-        <v>1.049469941435101</v>
+        <v>1.051847973293573</v>
       </c>
       <c r="L7">
-        <v>1.041116737155251</v>
+        <v>1.04957130074491</v>
       </c>
       <c r="M7">
-        <v>1.051594666614426</v>
+        <v>1.059745232377054</v>
       </c>
       <c r="N7">
-        <v>1.044392155430383</v>
+        <v>1.049522854886841</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018210102267488</v>
+        <v>1.042287800714001</v>
       </c>
       <c r="D8">
-        <v>1.03527579776691</v>
+        <v>1.048404671292275</v>
       </c>
       <c r="E8">
-        <v>1.026110448311008</v>
+        <v>1.04592963058783</v>
       </c>
       <c r="F8">
-        <v>1.036496786375485</v>
+        <v>1.056078195651558</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054187373048356</v>
+        <v>1.043867628853703</v>
       </c>
       <c r="J8">
-        <v>1.039302939795865</v>
+        <v>1.047246735898079</v>
       </c>
       <c r="K8">
-        <v>1.045998231134543</v>
+        <v>1.051101969482157</v>
       </c>
       <c r="L8">
-        <v>1.036947981167071</v>
+        <v>1.04863368619694</v>
       </c>
       <c r="M8">
-        <v>1.047204077768757</v>
+        <v>1.058754761195689</v>
       </c>
       <c r="N8">
-        <v>1.040778869180088</v>
+        <v>1.048733946383934</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007328545568464</v>
+        <v>1.040082804777141</v>
       </c>
       <c r="D9">
-        <v>1.026895650520678</v>
+        <v>1.046656425710545</v>
       </c>
       <c r="E9">
-        <v>1.016423969274789</v>
+        <v>1.043844892568924</v>
       </c>
       <c r="F9">
-        <v>1.026429087693074</v>
+        <v>1.053905178643152</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0502055287582</v>
+        <v>1.043215759964512</v>
       </c>
       <c r="J9">
-        <v>1.032625141974822</v>
+        <v>1.045856662306571</v>
       </c>
       <c r="K9">
-        <v>1.039566931564646</v>
+        <v>1.049784628278622</v>
       </c>
       <c r="L9">
-        <v>1.029256082859183</v>
+        <v>1.0469820898878</v>
       </c>
       <c r="M9">
-        <v>1.039107445565525</v>
+        <v>1.057010432797873</v>
       </c>
       <c r="N9">
-        <v>1.034091588120186</v>
+        <v>1.047341898728482</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9997125532027015</v>
+        <v>1.038614804116646</v>
       </c>
       <c r="D10">
-        <v>1.02104950303071</v>
+        <v>1.045492556670457</v>
       </c>
       <c r="E10">
-        <v>1.009675550112538</v>
+        <v>1.042458806868994</v>
       </c>
       <c r="F10">
-        <v>1.019416344305295</v>
+        <v>1.05246048705142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047367339992982</v>
+        <v>1.042775289449561</v>
       </c>
       <c r="J10">
-        <v>1.02793758037608</v>
+        <v>1.044928726959065</v>
       </c>
       <c r="K10">
-        <v>1.035048825743692</v>
+        <v>1.0489045788064</v>
       </c>
       <c r="L10">
-        <v>1.023872279702502</v>
+        <v>1.045881486503672</v>
       </c>
       <c r="M10">
-        <v>1.03344366208624</v>
+        <v>1.055848287053488</v>
       </c>
       <c r="N10">
-        <v>1.029397369646302</v>
+        <v>1.046412645606347</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9963202292460761</v>
+        <v>1.037979626879806</v>
       </c>
       <c r="D11">
-        <v>1.018450839158519</v>
+        <v>1.044988989536832</v>
       </c>
       <c r="E11">
-        <v>1.006677649933929</v>
+        <v>1.041859517728633</v>
       </c>
       <c r="F11">
-        <v>1.016301352194984</v>
+        <v>1.051835880060434</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046091562122715</v>
+        <v>1.042583169936641</v>
       </c>
       <c r="J11">
-        <v>1.025846896299812</v>
+        <v>1.044526641545541</v>
       </c>
       <c r="K11">
-        <v>1.033032990819007</v>
+        <v>1.048523086194254</v>
       </c>
       <c r="L11">
-        <v>1.021474724798509</v>
+        <v>1.045405034137484</v>
       </c>
       <c r="M11">
-        <v>1.030922260258648</v>
+        <v>1.055345253332559</v>
       </c>
       <c r="N11">
-        <v>1.027303716558841</v>
+        <v>1.046009989185417</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9950451581618971</v>
+        <v>1.037743766113302</v>
       </c>
       <c r="D12">
-        <v>1.017474953924482</v>
+        <v>1.044802002918923</v>
       </c>
       <c r="E12">
-        <v>1.005552085228528</v>
+        <v>1.041637050652172</v>
       </c>
       <c r="F12">
-        <v>1.01513187782069</v>
+        <v>1.051604017702999</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045610346731489</v>
+        <v>1.042511599408207</v>
       </c>
       <c r="J12">
-        <v>1.025060706260321</v>
+        <v>1.044377247332931</v>
       </c>
       <c r="K12">
-        <v>1.032274848395868</v>
+        <v>1.048381319763738</v>
       </c>
       <c r="L12">
-        <v>1.020573683503176</v>
+        <v>1.045228076872431</v>
       </c>
       <c r="M12">
-        <v>1.029974805645525</v>
+        <v>1.055158432698079</v>
       </c>
       <c r="N12">
-        <v>1.026516410039317</v>
+        <v>1.045860382815889</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9953193580923804</v>
+        <v>1.037794355763255</v>
       </c>
       <c r="D13">
-        <v>1.017684774254369</v>
+        <v>1.044842109420537</v>
       </c>
       <c r="E13">
-        <v>1.00579407670946</v>
+        <v>1.041684764441476</v>
       </c>
       <c r="F13">
-        <v>1.0153833072604</v>
+        <v>1.051653746408614</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045713906024843</v>
+        <v>1.042526960969898</v>
       </c>
       <c r="J13">
-        <v>1.025229789643101</v>
+        <v>1.044409294777193</v>
       </c>
       <c r="K13">
-        <v>1.032437903964535</v>
+        <v>1.048411731986014</v>
       </c>
       <c r="L13">
-        <v>1.020767442978825</v>
+        <v>1.045266033961191</v>
       </c>
       <c r="M13">
-        <v>1.030178539843347</v>
+        <v>1.055198505053419</v>
       </c>
       <c r="N13">
-        <v>1.026685733539895</v>
+        <v>1.045892475771197</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9962151425558546</v>
+        <v>1.037960129075384</v>
       </c>
       <c r="D14">
-        <v>1.018370392095035</v>
+        <v>1.044973531920947</v>
       </c>
       <c r="E14">
-        <v>1.006584859190641</v>
+        <v>1.041841125758184</v>
       </c>
       <c r="F14">
-        <v>1.016204940482551</v>
+        <v>1.051816711291368</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046051936142616</v>
+        <v>1.042577258150866</v>
       </c>
       <c r="J14">
-        <v>1.025782108550162</v>
+        <v>1.044514293421291</v>
       </c>
       <c r="K14">
-        <v>1.032970516344977</v>
+        <v>1.048511369019116</v>
       </c>
       <c r="L14">
-        <v>1.021400461403196</v>
+        <v>1.045390406415015</v>
       </c>
       <c r="M14">
-        <v>1.030844168819425</v>
+        <v>1.055329810093803</v>
       </c>
       <c r="N14">
-        <v>1.027238836803156</v>
+        <v>1.045997623525414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9967650507510314</v>
+        <v>1.038062277091532</v>
       </c>
       <c r="D15">
-        <v>1.018791399603528</v>
+        <v>1.045054513730793</v>
       </c>
       <c r="E15">
-        <v>1.007070475381662</v>
+        <v>1.041937483126767</v>
       </c>
       <c r="F15">
-        <v>1.0167095090168</v>
+        <v>1.051917138515214</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046259226409978</v>
+        <v>1.042608220252034</v>
       </c>
       <c r="J15">
-        <v>1.026121121777977</v>
+        <v>1.044578981037265</v>
       </c>
       <c r="K15">
-        <v>1.03329742098385</v>
+        <v>1.048572750348393</v>
       </c>
       <c r="L15">
-        <v>1.02178907982412</v>
+        <v>1.045467038848334</v>
       </c>
       <c r="M15">
-        <v>1.031252824641039</v>
+        <v>1.055410715267104</v>
       </c>
       <c r="N15">
-        <v>1.027578331468639</v>
+        <v>1.046062403005222</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9999356310340659</v>
+        <v>1.038656968843263</v>
       </c>
       <c r="D16">
-        <v>1.021220507199036</v>
+        <v>1.045525985202119</v>
       </c>
       <c r="E16">
-        <v>1.009872861729961</v>
+        <v>1.042498598669511</v>
       </c>
       <c r="F16">
-        <v>1.019621369654743</v>
+        <v>1.052501960359155</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047450997518536</v>
+        <v>1.04278801048326</v>
       </c>
       <c r="J16">
-        <v>1.028075009613486</v>
+        <v>1.044955406141194</v>
       </c>
       <c r="K16">
-        <v>1.035181320536536</v>
+        <v>1.048929888322331</v>
       </c>
       <c r="L16">
-        <v>1.02402995665974</v>
+        <v>1.045913109602733</v>
       </c>
       <c r="M16">
-        <v>1.033609501743856</v>
+        <v>1.055881675685652</v>
       </c>
       <c r="N16">
-        <v>1.029534994048989</v>
+        <v>1.046439362675975</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001898587582199</v>
+        <v>1.039030131407661</v>
       </c>
       <c r="D17">
-        <v>1.022725860906358</v>
+        <v>1.045821833601215</v>
       </c>
       <c r="E17">
-        <v>1.011610005891003</v>
+        <v>1.042850812057696</v>
       </c>
       <c r="F17">
-        <v>1.021426464029746</v>
+        <v>1.052869059884002</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048185822764568</v>
+        <v>1.04290041556908</v>
       </c>
       <c r="J17">
-        <v>1.029284000875597</v>
+        <v>1.045191452365821</v>
       </c>
       <c r="K17">
-        <v>1.036346820845322</v>
+        <v>1.049153798229681</v>
       </c>
       <c r="L17">
-        <v>1.025417486510906</v>
+        <v>1.046192949740736</v>
       </c>
       <c r="M17">
-        <v>1.035068957644663</v>
+        <v>1.056177146417628</v>
       </c>
       <c r="N17">
-        <v>1.030745702217366</v>
+        <v>1.046675744113315</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003034481709964</v>
+        <v>1.039247836767938</v>
       </c>
       <c r="D18">
-        <v>1.023597457409534</v>
+        <v>1.045994435081781</v>
       </c>
       <c r="E18">
-        <v>1.012615984424603</v>
+        <v>1.043056338458913</v>
       </c>
       <c r="F18">
-        <v>1.022471823690239</v>
+        <v>1.05308327479536</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048609937457565</v>
+        <v>1.042965845129755</v>
       </c>
       <c r="J18">
-        <v>1.029983338119941</v>
+        <v>1.045329106750262</v>
       </c>
       <c r="K18">
-        <v>1.037020931031353</v>
+        <v>1.049284359991966</v>
       </c>
       <c r="L18">
-        <v>1.026220445817831</v>
+        <v>1.046356186905836</v>
       </c>
       <c r="M18">
-        <v>1.035913619320519</v>
+        <v>1.056349507092665</v>
       </c>
       <c r="N18">
-        <v>1.031446032600812</v>
+        <v>1.046813593982772</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003420278180853</v>
+        <v>1.039322076441954</v>
       </c>
       <c r="D19">
-        <v>1.023893570427659</v>
+        <v>1.046053294155669</v>
       </c>
       <c r="E19">
-        <v>1.012957782551458</v>
+        <v>1.043126432253044</v>
       </c>
       <c r="F19">
-        <v>1.022827007430871</v>
+        <v>1.053156332108602</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048753795704735</v>
+        <v>1.042988132103973</v>
       </c>
       <c r="J19">
-        <v>1.030220815804799</v>
+        <v>1.045376038669616</v>
       </c>
       <c r="K19">
-        <v>1.037249830073044</v>
+        <v>1.049328871182937</v>
       </c>
       <c r="L19">
-        <v>1.026493169968764</v>
+        <v>1.046411848423921</v>
       </c>
       <c r="M19">
-        <v>1.036200520889858</v>
+        <v>1.056408280583304</v>
       </c>
       <c r="N19">
-        <v>1.031683847531221</v>
+        <v>1.046860592550834</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001688924222029</v>
+        <v>1.038990089838042</v>
       </c>
       <c r="D20">
-        <v>1.022565021609451</v>
+        <v>1.045790087917038</v>
       </c>
       <c r="E20">
-        <v>1.011424382930313</v>
+        <v>1.042813013960917</v>
       </c>
       <c r="F20">
-        <v>1.021233576974087</v>
+        <v>1.052829664057936</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04810745015989</v>
+        <v>1.042888369467825</v>
       </c>
       <c r="J20">
-        <v>1.029154895560995</v>
+        <v>1.045166129666761</v>
       </c>
       <c r="K20">
-        <v>1.036222367001209</v>
+        <v>1.049129779060731</v>
       </c>
       <c r="L20">
-        <v>1.025269279505834</v>
+        <v>1.046162924382737</v>
       </c>
       <c r="M20">
-        <v>1.034913059734416</v>
+        <v>1.056145443377206</v>
       </c>
       <c r="N20">
-        <v>1.030616413558409</v>
+        <v>1.046650385453119</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9959517774971568</v>
+        <v>1.037911310964024</v>
       </c>
       <c r="D21">
-        <v>1.018168792434994</v>
+        <v>1.044934829586957</v>
       </c>
       <c r="E21">
-        <v>1.006352330257427</v>
+        <v>1.041795077495624</v>
       </c>
       <c r="F21">
-        <v>1.015963338441147</v>
+        <v>1.05176871819723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045952599686325</v>
+        <v>1.042562452644408</v>
       </c>
       <c r="J21">
-        <v>1.025619733740234</v>
+        <v>1.044483375084939</v>
       </c>
       <c r="K21">
-        <v>1.03281393764283</v>
+        <v>1.048482030131207</v>
       </c>
       <c r="L21">
-        <v>1.02121434696</v>
+        <v>1.045353781313218</v>
       </c>
       <c r="M21">
-        <v>1.030648462881645</v>
+        <v>1.055291143237801</v>
       </c>
       <c r="N21">
-        <v>1.027076231402373</v>
+        <v>1.045966661281478</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9922573147763907</v>
+        <v>1.037233458767533</v>
       </c>
       <c r="D22">
-        <v>1.015342945452983</v>
+        <v>1.044397446133106</v>
       </c>
       <c r="E22">
-        <v>1.003093495472182</v>
+        <v>1.041155845493028</v>
       </c>
       <c r="F22">
-        <v>1.012577475638674</v>
+        <v>1.05110249597472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044555159232466</v>
+        <v>1.042356328061025</v>
       </c>
       <c r="J22">
-        <v>1.023341144234268</v>
+        <v>1.044053858797271</v>
       </c>
       <c r="K22">
-        <v>1.030616462389888</v>
+        <v>1.048074400067349</v>
       </c>
       <c r="L22">
-        <v>1.018603917703335</v>
+        <v>1.044845147612822</v>
       </c>
       <c r="M22">
-        <v>1.027903821234637</v>
+        <v>1.054754176139298</v>
       </c>
       <c r="N22">
-        <v>1.02479440603795</v>
+        <v>1.045536535031414</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9942243780741675</v>
+        <v>1.037592761095108</v>
       </c>
       <c r="D23">
-        <v>1.016847019088414</v>
+        <v>1.044682289571256</v>
       </c>
       <c r="E23">
-        <v>1.004827904927678</v>
+        <v>1.041494639686151</v>
       </c>
       <c r="F23">
-        <v>1.014379461568716</v>
+        <v>1.051455593296674</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045300112646867</v>
+        <v>1.042465712922913</v>
       </c>
       <c r="J23">
-        <v>1.024554528351546</v>
+        <v>1.04428157612983</v>
       </c>
       <c r="K23">
-        <v>1.031786702036889</v>
+        <v>1.048290526762573</v>
       </c>
       <c r="L23">
-        <v>1.019993713508858</v>
+        <v>1.045114773547825</v>
       </c>
       <c r="M23">
-        <v>1.029364998349745</v>
+        <v>1.055038816559475</v>
       </c>
       <c r="N23">
-        <v>1.026009513299852</v>
+        <v>1.045764575748705</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00178369002501</v>
+        <v>1.03900818275782</v>
       </c>
       <c r="D24">
-        <v>1.022637717861614</v>
+        <v>1.045804432307579</v>
       </c>
       <c r="E24">
-        <v>1.011508280372002</v>
+        <v>1.042830093027316</v>
       </c>
       <c r="F24">
-        <v>1.021320757528263</v>
+        <v>1.052847465051887</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048142877239848</v>
+        <v>1.042893812997837</v>
       </c>
       <c r="J24">
-        <v>1.029213250730473</v>
+        <v>1.045177571989127</v>
       </c>
       <c r="K24">
-        <v>1.036278619939032</v>
+        <v>1.049140632416333</v>
       </c>
       <c r="L24">
-        <v>1.025336267499091</v>
+        <v>1.046176491515212</v>
       </c>
       <c r="M24">
-        <v>1.034983523690653</v>
+        <v>1.056159768562237</v>
       </c>
       <c r="N24">
-        <v>1.03067485159892</v>
+        <v>1.046661844024895</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010202639291219</v>
+        <v>1.040652500712884</v>
       </c>
       <c r="D25">
-        <v>1.029106017764154</v>
+        <v>1.047108107403013</v>
       </c>
       <c r="E25">
-        <v>1.01897723577872</v>
+        <v>1.04438319325756</v>
       </c>
       <c r="F25">
-        <v>1.029082630908733</v>
+        <v>1.054466258290173</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051266257293265</v>
+        <v>1.043385324375706</v>
       </c>
       <c r="J25">
-        <v>1.034391455730796</v>
+        <v>1.046216248235232</v>
       </c>
       <c r="K25">
-        <v>1.0412686983898</v>
+        <v>1.050125517502948</v>
       </c>
       <c r="L25">
-        <v>1.031287927979604</v>
+        <v>1.047408990092219</v>
       </c>
       <c r="M25">
-        <v>1.041245649033299</v>
+        <v>1.057461257631348</v>
       </c>
       <c r="N25">
-        <v>1.035860410244292</v>
+        <v>1.047701995310407</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_224/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041965429811312</v>
+        <v>1.016659470729335</v>
       </c>
       <c r="D2">
-        <v>1.048149074808328</v>
+        <v>1.034079739652291</v>
       </c>
       <c r="E2">
-        <v>1.045624627833948</v>
+        <v>1.024726820639208</v>
       </c>
       <c r="F2">
-        <v>1.055760267162323</v>
+        <v>1.035058571948921</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043773080900968</v>
+        <v>1.053625904677045</v>
       </c>
       <c r="J2">
-        <v>1.047043796655332</v>
+        <v>1.038353066500925</v>
       </c>
       <c r="K2">
-        <v>1.050909726480913</v>
+        <v>1.04508386059562</v>
       </c>
       <c r="L2">
-        <v>1.048392344486278</v>
+        <v>1.035852093241032</v>
       </c>
       <c r="M2">
-        <v>1.058499839548612</v>
+        <v>1.046050171895903</v>
       </c>
       <c r="N2">
-        <v>1.048530718944185</v>
+        <v>1.039827646956117</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042919548124774</v>
+        <v>1.021210021872259</v>
       </c>
       <c r="D3">
-        <v>1.048905561855759</v>
+        <v>1.037591450505773</v>
       </c>
       <c r="E3">
-        <v>1.046527558483697</v>
+        <v>1.028790477068298</v>
       </c>
       <c r="F3">
-        <v>1.05670147367993</v>
+        <v>1.039282675745401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044052140462197</v>
+        <v>1.055267402796162</v>
       </c>
       <c r="J3">
-        <v>1.047644136667051</v>
+        <v>1.041138718340616</v>
       </c>
       <c r="K3">
-        <v>1.051478344511386</v>
+        <v>1.047764915458415</v>
       </c>
       <c r="L3">
-        <v>1.049106515277512</v>
+        <v>1.039067768489046</v>
       </c>
       <c r="M3">
-        <v>1.059254225558452</v>
+        <v>1.049436438105059</v>
       </c>
       <c r="N3">
-        <v>1.049131911507581</v>
+        <v>1.04261725474094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043537300010837</v>
+        <v>1.024094466433088</v>
       </c>
       <c r="D4">
-        <v>1.049395354752548</v>
+        <v>1.039820042583923</v>
       </c>
       <c r="E4">
-        <v>1.047112520958926</v>
+        <v>1.031371397840661</v>
       </c>
       <c r="F4">
-        <v>1.057311250256753</v>
+        <v>1.041965704562134</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044231557395825</v>
+        <v>1.056297690471939</v>
       </c>
       <c r="J4">
-        <v>1.048032345497218</v>
+        <v>1.042901288762251</v>
       </c>
       <c r="K4">
-        <v>1.051845909373342</v>
+        <v>1.049460502968758</v>
       </c>
       <c r="L4">
-        <v>1.049568704285608</v>
+        <v>1.041105385775389</v>
       </c>
       <c r="M4">
-        <v>1.059742489326609</v>
+        <v>1.051582708691771</v>
       </c>
       <c r="N4">
-        <v>1.049520671638814</v>
+        <v>1.044382328214743</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043797091490957</v>
+        <v>1.025293215399677</v>
       </c>
       <c r="D5">
-        <v>1.049601333134822</v>
+        <v>1.040746810539486</v>
       </c>
       <c r="E5">
-        <v>1.047358607010823</v>
+        <v>1.032445195624633</v>
       </c>
       <c r="F5">
-        <v>1.057567779372024</v>
+        <v>1.043082032177373</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04430670764455</v>
+        <v>1.056723382910443</v>
       </c>
       <c r="J5">
-        <v>1.048195487482189</v>
+        <v>1.043633006139586</v>
       </c>
       <c r="K5">
-        <v>1.052000344408354</v>
+        <v>1.050164213172869</v>
       </c>
       <c r="L5">
-        <v>1.049763024983213</v>
+        <v>1.041952001031113</v>
       </c>
       <c r="M5">
-        <v>1.059947784420908</v>
+        <v>1.052474599925034</v>
       </c>
       <c r="N5">
-        <v>1.049684045304117</v>
+        <v>1.045115084714683</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043840716794135</v>
+        <v>1.025493691506874</v>
       </c>
       <c r="D6">
-        <v>1.049635921848548</v>
+        <v>1.040901834228785</v>
       </c>
       <c r="E6">
-        <v>1.047399935748896</v>
+        <v>1.032624844204673</v>
       </c>
       <c r="F6">
-        <v>1.057610862202591</v>
+        <v>1.043268798840743</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0443193094647</v>
+        <v>1.056794427564618</v>
       </c>
       <c r="J6">
-        <v>1.048222876137294</v>
+        <v>1.043755329515564</v>
       </c>
       <c r="K6">
-        <v>1.052026269471847</v>
+        <v>1.050281842546398</v>
       </c>
       <c r="L6">
-        <v>1.049795653218961</v>
+        <v>1.04209357436708</v>
       </c>
       <c r="M6">
-        <v>1.05998225604083</v>
+        <v>1.052623752082499</v>
       </c>
       <c r="N6">
-        <v>1.049711472854254</v>
+        <v>1.045237581803885</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04354077101026</v>
+        <v>1.024110538025876</v>
       </c>
       <c r="D7">
-        <v>1.049398106774419</v>
+        <v>1.039832465483359</v>
       </c>
       <c r="E7">
-        <v>1.047115808514828</v>
+        <v>1.031385789557063</v>
       </c>
       <c r="F7">
-        <v>1.057314677309374</v>
+        <v>1.041980666104272</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044232562644761</v>
+        <v>1.056303407586571</v>
       </c>
       <c r="J7">
-        <v>1.048034525649179</v>
+        <v>1.042911102041908</v>
       </c>
       <c r="K7">
-        <v>1.051847973293573</v>
+        <v>1.0494699414351</v>
       </c>
       <c r="L7">
-        <v>1.04957130074491</v>
+        <v>1.041116737155251</v>
       </c>
       <c r="M7">
-        <v>1.059745232377054</v>
+        <v>1.051594666614425</v>
       </c>
       <c r="N7">
-        <v>1.049522854886841</v>
+        <v>1.044392155430382</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042287800714001</v>
+        <v>1.018210102267487</v>
       </c>
       <c r="D8">
-        <v>1.048404671292275</v>
+        <v>1.035275797766909</v>
       </c>
       <c r="E8">
-        <v>1.04592963058783</v>
+        <v>1.026110448311007</v>
       </c>
       <c r="F8">
-        <v>1.056078195651558</v>
+        <v>1.036496786375484</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043867628853703</v>
+        <v>1.054187373048355</v>
       </c>
       <c r="J8">
-        <v>1.047246735898079</v>
+        <v>1.039302939795864</v>
       </c>
       <c r="K8">
-        <v>1.051101969482157</v>
+        <v>1.045998231134542</v>
       </c>
       <c r="L8">
-        <v>1.04863368619694</v>
+        <v>1.036947981167069</v>
       </c>
       <c r="M8">
-        <v>1.058754761195689</v>
+        <v>1.047204077768756</v>
       </c>
       <c r="N8">
-        <v>1.048733946383934</v>
+        <v>1.040778869180087</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040082804777141</v>
+        <v>1.007328545568463</v>
       </c>
       <c r="D9">
-        <v>1.046656425710545</v>
+        <v>1.026895650520677</v>
       </c>
       <c r="E9">
-        <v>1.043844892568924</v>
+        <v>1.016423969274788</v>
       </c>
       <c r="F9">
-        <v>1.053905178643152</v>
+        <v>1.026429087693073</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043215759964512</v>
+        <v>1.050205528758199</v>
       </c>
       <c r="J9">
-        <v>1.045856662306571</v>
+        <v>1.032625141974822</v>
       </c>
       <c r="K9">
-        <v>1.049784628278622</v>
+        <v>1.039566931564645</v>
       </c>
       <c r="L9">
-        <v>1.0469820898878</v>
+        <v>1.029256082859182</v>
       </c>
       <c r="M9">
-        <v>1.057010432797873</v>
+        <v>1.039107445565524</v>
       </c>
       <c r="N9">
-        <v>1.047341898728482</v>
+        <v>1.034091588120185</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038614804116646</v>
+        <v>0.999712553202701</v>
       </c>
       <c r="D10">
-        <v>1.045492556670457</v>
+        <v>1.021049503030709</v>
       </c>
       <c r="E10">
-        <v>1.042458806868994</v>
+        <v>1.009675550112537</v>
       </c>
       <c r="F10">
-        <v>1.05246048705142</v>
+        <v>1.019416344305294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042775289449561</v>
+        <v>1.047367339992981</v>
       </c>
       <c r="J10">
-        <v>1.044928726959065</v>
+        <v>1.02793758037608</v>
       </c>
       <c r="K10">
-        <v>1.0489045788064</v>
+        <v>1.035048825743691</v>
       </c>
       <c r="L10">
-        <v>1.045881486503672</v>
+        <v>1.023872279702502</v>
       </c>
       <c r="M10">
-        <v>1.055848287053488</v>
+        <v>1.033443662086239</v>
       </c>
       <c r="N10">
-        <v>1.046412645606347</v>
+        <v>1.029397369646302</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037979626879806</v>
+        <v>0.9963202292460762</v>
       </c>
       <c r="D11">
-        <v>1.044988989536832</v>
+        <v>1.01845083915852</v>
       </c>
       <c r="E11">
-        <v>1.041859517728633</v>
+        <v>1.00667764993393</v>
       </c>
       <c r="F11">
-        <v>1.051835880060434</v>
+        <v>1.016301352194984</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042583169936641</v>
+        <v>1.046091562122715</v>
       </c>
       <c r="J11">
-        <v>1.044526641545541</v>
+        <v>1.025846896299812</v>
       </c>
       <c r="K11">
-        <v>1.048523086194254</v>
+        <v>1.033032990819007</v>
       </c>
       <c r="L11">
-        <v>1.045405034137484</v>
+        <v>1.021474724798509</v>
       </c>
       <c r="M11">
-        <v>1.055345253332559</v>
+        <v>1.030922260258648</v>
       </c>
       <c r="N11">
-        <v>1.046009989185417</v>
+        <v>1.027303716558841</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037743766113302</v>
+        <v>0.9950451581618966</v>
       </c>
       <c r="D12">
-        <v>1.044802002918923</v>
+        <v>1.017474953924482</v>
       </c>
       <c r="E12">
-        <v>1.041637050652172</v>
+        <v>1.005552085228528</v>
       </c>
       <c r="F12">
-        <v>1.051604017702999</v>
+        <v>1.01513187782069</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042511599408207</v>
+        <v>1.04561034673149</v>
       </c>
       <c r="J12">
-        <v>1.044377247332931</v>
+        <v>1.02506070626032</v>
       </c>
       <c r="K12">
-        <v>1.048381319763738</v>
+        <v>1.032274848395868</v>
       </c>
       <c r="L12">
-        <v>1.045228076872431</v>
+        <v>1.020573683503176</v>
       </c>
       <c r="M12">
-        <v>1.055158432698079</v>
+        <v>1.029974805645525</v>
       </c>
       <c r="N12">
-        <v>1.045860382815889</v>
+        <v>1.026516410039316</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037794355763255</v>
+        <v>0.9953193580923793</v>
       </c>
       <c r="D13">
-        <v>1.044842109420537</v>
+        <v>1.017684774254368</v>
       </c>
       <c r="E13">
-        <v>1.041684764441476</v>
+        <v>1.005794076709459</v>
       </c>
       <c r="F13">
-        <v>1.051653746408614</v>
+        <v>1.015383307260399</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042526960969898</v>
+        <v>1.045713906024843</v>
       </c>
       <c r="J13">
-        <v>1.044409294777193</v>
+        <v>1.0252297896431</v>
       </c>
       <c r="K13">
-        <v>1.048411731986014</v>
+        <v>1.032437903964534</v>
       </c>
       <c r="L13">
-        <v>1.045266033961191</v>
+        <v>1.020767442978824</v>
       </c>
       <c r="M13">
-        <v>1.055198505053419</v>
+        <v>1.030178539843346</v>
       </c>
       <c r="N13">
-        <v>1.045892475771197</v>
+        <v>1.026685733539894</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037960129075384</v>
+        <v>0.9962151425558541</v>
       </c>
       <c r="D14">
-        <v>1.044973531920947</v>
+        <v>1.018370392095034</v>
       </c>
       <c r="E14">
-        <v>1.041841125758184</v>
+        <v>1.00658485919064</v>
       </c>
       <c r="F14">
-        <v>1.051816711291368</v>
+        <v>1.01620494048255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042577258150866</v>
+        <v>1.046051936142616</v>
       </c>
       <c r="J14">
-        <v>1.044514293421291</v>
+        <v>1.025782108550161</v>
       </c>
       <c r="K14">
-        <v>1.048511369019116</v>
+        <v>1.032970516344976</v>
       </c>
       <c r="L14">
-        <v>1.045390406415015</v>
+        <v>1.021400461403195</v>
       </c>
       <c r="M14">
-        <v>1.055329810093803</v>
+        <v>1.030844168819425</v>
       </c>
       <c r="N14">
-        <v>1.045997623525414</v>
+        <v>1.027238836803155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038062277091532</v>
+        <v>0.9967650507510311</v>
       </c>
       <c r="D15">
-        <v>1.045054513730793</v>
+        <v>1.018791399603528</v>
       </c>
       <c r="E15">
-        <v>1.041937483126767</v>
+        <v>1.007070475381662</v>
       </c>
       <c r="F15">
-        <v>1.051917138515214</v>
+        <v>1.016709509016799</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042608220252034</v>
+        <v>1.046259226409977</v>
       </c>
       <c r="J15">
-        <v>1.044578981037265</v>
+        <v>1.026121121777976</v>
       </c>
       <c r="K15">
-        <v>1.048572750348393</v>
+        <v>1.033297420983849</v>
       </c>
       <c r="L15">
-        <v>1.045467038848334</v>
+        <v>1.02178907982412</v>
       </c>
       <c r="M15">
-        <v>1.055410715267104</v>
+        <v>1.031252824641038</v>
       </c>
       <c r="N15">
-        <v>1.046062403005222</v>
+        <v>1.027578331468638</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038656968843263</v>
+        <v>0.9999356310340656</v>
       </c>
       <c r="D16">
-        <v>1.045525985202119</v>
+        <v>1.021220507199035</v>
       </c>
       <c r="E16">
-        <v>1.042498598669511</v>
+        <v>1.00987286172996</v>
       </c>
       <c r="F16">
-        <v>1.052501960359155</v>
+        <v>1.019621369654742</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04278801048326</v>
+        <v>1.047450997518535</v>
       </c>
       <c r="J16">
-        <v>1.044955406141194</v>
+        <v>1.028075009613485</v>
       </c>
       <c r="K16">
-        <v>1.048929888322331</v>
+        <v>1.035181320536536</v>
       </c>
       <c r="L16">
-        <v>1.045913109602733</v>
+        <v>1.024029956659739</v>
       </c>
       <c r="M16">
-        <v>1.055881675685652</v>
+        <v>1.033609501743855</v>
       </c>
       <c r="N16">
-        <v>1.046439362675975</v>
+        <v>1.029534994048988</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039030131407661</v>
+        <v>1.001898587582199</v>
       </c>
       <c r="D17">
-        <v>1.045821833601215</v>
+        <v>1.022725860906358</v>
       </c>
       <c r="E17">
-        <v>1.042850812057696</v>
+        <v>1.011610005891004</v>
       </c>
       <c r="F17">
-        <v>1.052869059884002</v>
+        <v>1.021426464029746</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04290041556908</v>
+        <v>1.048185822764568</v>
       </c>
       <c r="J17">
-        <v>1.045191452365821</v>
+        <v>1.029284000875598</v>
       </c>
       <c r="K17">
-        <v>1.049153798229681</v>
+        <v>1.036346820845322</v>
       </c>
       <c r="L17">
-        <v>1.046192949740736</v>
+        <v>1.025417486510907</v>
       </c>
       <c r="M17">
-        <v>1.056177146417628</v>
+        <v>1.035068957644663</v>
       </c>
       <c r="N17">
-        <v>1.046675744113315</v>
+        <v>1.030745702217366</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039247836767938</v>
+        <v>1.003034481709963</v>
       </c>
       <c r="D18">
-        <v>1.045994435081781</v>
+        <v>1.023597457409533</v>
       </c>
       <c r="E18">
-        <v>1.043056338458913</v>
+        <v>1.012615984424602</v>
       </c>
       <c r="F18">
-        <v>1.05308327479536</v>
+        <v>1.022471823690239</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042965845129755</v>
+        <v>1.048609937457565</v>
       </c>
       <c r="J18">
-        <v>1.045329106750262</v>
+        <v>1.029983338119941</v>
       </c>
       <c r="K18">
-        <v>1.049284359991966</v>
+        <v>1.037020931031352</v>
       </c>
       <c r="L18">
-        <v>1.046356186905836</v>
+        <v>1.02622044581783</v>
       </c>
       <c r="M18">
-        <v>1.056349507092665</v>
+        <v>1.035913619320518</v>
       </c>
       <c r="N18">
-        <v>1.046813593982772</v>
+        <v>1.031446032600811</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039322076441954</v>
+        <v>1.003420278180853</v>
       </c>
       <c r="D19">
-        <v>1.046053294155669</v>
+        <v>1.023893570427659</v>
       </c>
       <c r="E19">
-        <v>1.043126432253044</v>
+        <v>1.012957782551458</v>
       </c>
       <c r="F19">
-        <v>1.053156332108602</v>
+        <v>1.022827007430871</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042988132103973</v>
+        <v>1.048753795704734</v>
       </c>
       <c r="J19">
-        <v>1.045376038669616</v>
+        <v>1.030220815804799</v>
       </c>
       <c r="K19">
-        <v>1.049328871182937</v>
+        <v>1.037249830073044</v>
       </c>
       <c r="L19">
-        <v>1.046411848423921</v>
+        <v>1.026493169968764</v>
       </c>
       <c r="M19">
-        <v>1.056408280583304</v>
+        <v>1.036200520889858</v>
       </c>
       <c r="N19">
-        <v>1.046860592550834</v>
+        <v>1.03168384753122</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038990089838042</v>
+        <v>1.001688924222028</v>
       </c>
       <c r="D20">
-        <v>1.045790087917038</v>
+        <v>1.02256502160945</v>
       </c>
       <c r="E20">
-        <v>1.042813013960917</v>
+        <v>1.011424382930312</v>
       </c>
       <c r="F20">
-        <v>1.052829664057936</v>
+        <v>1.021233576974087</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042888369467825</v>
+        <v>1.04810745015989</v>
       </c>
       <c r="J20">
-        <v>1.045166129666761</v>
+        <v>1.029154895560995</v>
       </c>
       <c r="K20">
-        <v>1.049129779060731</v>
+        <v>1.036222367001208</v>
       </c>
       <c r="L20">
-        <v>1.046162924382737</v>
+        <v>1.025269279505834</v>
       </c>
       <c r="M20">
-        <v>1.056145443377206</v>
+        <v>1.034913059734416</v>
       </c>
       <c r="N20">
-        <v>1.046650385453119</v>
+        <v>1.030616413558408</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037911310964024</v>
+        <v>0.9959517774971572</v>
       </c>
       <c r="D21">
-        <v>1.044934829586957</v>
+        <v>1.018168792434994</v>
       </c>
       <c r="E21">
-        <v>1.041795077495624</v>
+        <v>1.006352330257427</v>
       </c>
       <c r="F21">
-        <v>1.05176871819723</v>
+        <v>1.015963338441148</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042562452644408</v>
+        <v>1.045952599686325</v>
       </c>
       <c r="J21">
-        <v>1.044483375084939</v>
+        <v>1.025619733740234</v>
       </c>
       <c r="K21">
-        <v>1.048482030131207</v>
+        <v>1.032813937642831</v>
       </c>
       <c r="L21">
-        <v>1.045353781313218</v>
+        <v>1.02121434696</v>
       </c>
       <c r="M21">
-        <v>1.055291143237801</v>
+        <v>1.030648462881645</v>
       </c>
       <c r="N21">
-        <v>1.045966661281478</v>
+        <v>1.027076231402373</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037233458767533</v>
+        <v>0.9922573147763898</v>
       </c>
       <c r="D22">
-        <v>1.044397446133106</v>
+        <v>1.015342945452983</v>
       </c>
       <c r="E22">
-        <v>1.041155845493028</v>
+        <v>1.003093495472181</v>
       </c>
       <c r="F22">
-        <v>1.05110249597472</v>
+        <v>1.012577475638673</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042356328061025</v>
+        <v>1.044555159232466</v>
       </c>
       <c r="J22">
-        <v>1.044053858797271</v>
+        <v>1.023341144234267</v>
       </c>
       <c r="K22">
-        <v>1.048074400067349</v>
+        <v>1.030616462389887</v>
       </c>
       <c r="L22">
-        <v>1.044845147612822</v>
+        <v>1.018603917703334</v>
       </c>
       <c r="M22">
-        <v>1.054754176139298</v>
+        <v>1.027903821234637</v>
       </c>
       <c r="N22">
-        <v>1.045536535031414</v>
+        <v>1.02479440603795</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037592761095108</v>
+        <v>0.9942243780741669</v>
       </c>
       <c r="D23">
-        <v>1.044682289571256</v>
+        <v>1.016847019088414</v>
       </c>
       <c r="E23">
-        <v>1.041494639686151</v>
+        <v>1.004827904927678</v>
       </c>
       <c r="F23">
-        <v>1.051455593296674</v>
+        <v>1.014379461568715</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042465712922913</v>
+        <v>1.045300112646867</v>
       </c>
       <c r="J23">
-        <v>1.04428157612983</v>
+        <v>1.024554528351545</v>
       </c>
       <c r="K23">
-        <v>1.048290526762573</v>
+        <v>1.031786702036888</v>
       </c>
       <c r="L23">
-        <v>1.045114773547825</v>
+        <v>1.019993713508857</v>
       </c>
       <c r="M23">
-        <v>1.055038816559475</v>
+        <v>1.029364998349744</v>
       </c>
       <c r="N23">
-        <v>1.045764575748705</v>
+        <v>1.026009513299852</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03900818275782</v>
+        <v>1.001783690025011</v>
       </c>
       <c r="D24">
-        <v>1.045804432307579</v>
+        <v>1.022637717861614</v>
       </c>
       <c r="E24">
-        <v>1.042830093027316</v>
+        <v>1.011508280372002</v>
       </c>
       <c r="F24">
-        <v>1.052847465051887</v>
+        <v>1.021320757528263</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042893812997837</v>
+        <v>1.048142877239848</v>
       </c>
       <c r="J24">
-        <v>1.045177571989127</v>
+        <v>1.029213250730473</v>
       </c>
       <c r="K24">
-        <v>1.049140632416333</v>
+        <v>1.036278619939032</v>
       </c>
       <c r="L24">
-        <v>1.046176491515212</v>
+        <v>1.025336267499092</v>
       </c>
       <c r="M24">
-        <v>1.056159768562237</v>
+        <v>1.034983523690653</v>
       </c>
       <c r="N24">
-        <v>1.046661844024895</v>
+        <v>1.03067485159892</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040652500712884</v>
+        <v>1.010202639291218</v>
       </c>
       <c r="D25">
-        <v>1.047108107403013</v>
+        <v>1.029106017764154</v>
       </c>
       <c r="E25">
-        <v>1.04438319325756</v>
+        <v>1.01897723577872</v>
       </c>
       <c r="F25">
-        <v>1.054466258290173</v>
+        <v>1.029082630908733</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043385324375706</v>
+        <v>1.051266257293264</v>
       </c>
       <c r="J25">
-        <v>1.046216248235232</v>
+        <v>1.034391455730795</v>
       </c>
       <c r="K25">
-        <v>1.050125517502948</v>
+        <v>1.041268698389799</v>
       </c>
       <c r="L25">
-        <v>1.047408990092219</v>
+        <v>1.031287927979604</v>
       </c>
       <c r="M25">
-        <v>1.057461257631348</v>
+        <v>1.041245649033298</v>
       </c>
       <c r="N25">
-        <v>1.047701995310407</v>
+        <v>1.035860410244291</v>
       </c>
     </row>
   </sheetData>
